--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ltb-Ltbr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ltb-Ltbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Ltbr</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.970374962534857</v>
+        <v>1.013823333333333</v>
       </c>
       <c r="H2">
-        <v>0.970374962534857</v>
+        <v>3.04147</v>
       </c>
       <c r="I2">
-        <v>0.1966423450613002</v>
+        <v>0.1808135948909178</v>
       </c>
       <c r="J2">
-        <v>0.1966423450613002</v>
+        <v>0.1808135948909177</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.89589196829802</v>
+        <v>9.667057999999999</v>
       </c>
       <c r="N2">
-        <v>8.89589196829802</v>
+        <v>29.001174</v>
       </c>
       <c r="O2">
-        <v>0.1477905969310961</v>
+        <v>0.1512832311431697</v>
       </c>
       <c r="P2">
-        <v>0.1477905969310961</v>
+        <v>0.1588228070066391</v>
       </c>
       <c r="Q2">
-        <v>8.632350835451327</v>
+        <v>9.800688965086666</v>
       </c>
       <c r="R2">
-        <v>8.632350835451327</v>
+        <v>88.20620068577999</v>
       </c>
       <c r="S2">
-        <v>0.02906188955854014</v>
+        <v>0.02735406486971016</v>
       </c>
       <c r="T2">
-        <v>0.02906188955854014</v>
+        <v>0.02871732268553685</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.970374962534857</v>
+        <v>1.013823333333333</v>
       </c>
       <c r="H3">
-        <v>0.970374962534857</v>
+        <v>3.04147</v>
       </c>
       <c r="I3">
-        <v>0.1966423450613002</v>
+        <v>0.1808135948909178</v>
       </c>
       <c r="J3">
-        <v>0.1966423450613002</v>
+        <v>0.1808135948909177</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.2005235485396</v>
+        <v>20.60908733333333</v>
       </c>
       <c r="N3">
-        <v>19.2005235485396</v>
+        <v>61.82726199999999</v>
       </c>
       <c r="O3">
-        <v>0.3189850828607963</v>
+        <v>0.3225189424433408</v>
       </c>
       <c r="P3">
-        <v>0.3189850828607963</v>
+        <v>0.3385924756140875</v>
       </c>
       <c r="Q3">
-        <v>18.63170731906375</v>
+        <v>20.89397361723778</v>
       </c>
       <c r="R3">
-        <v>18.63170731906375</v>
+        <v>188.04576255514</v>
       </c>
       <c r="S3">
-        <v>0.06272597473332013</v>
+        <v>0.05831580940359745</v>
       </c>
       <c r="T3">
-        <v>0.06272597473332013</v>
+        <v>0.06122212271879856</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.970374962534857</v>
+        <v>1.013823333333333</v>
       </c>
       <c r="H4">
-        <v>0.970374962534857</v>
+        <v>3.04147</v>
       </c>
       <c r="I4">
-        <v>0.1966423450613002</v>
+        <v>0.1808135948909178</v>
       </c>
       <c r="J4">
-        <v>0.1966423450613002</v>
+        <v>0.1808135948909177</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.528870067042</v>
+        <v>11.51251933333333</v>
       </c>
       <c r="N4">
-        <v>10.528870067042</v>
+        <v>34.537558</v>
       </c>
       <c r="O4">
-        <v>0.1749198391531049</v>
+        <v>0.1801635123472805</v>
       </c>
       <c r="P4">
-        <v>0.1749198391531049</v>
+        <v>0.1891424088112641</v>
       </c>
       <c r="Q4">
-        <v>10.21695189684026</v>
+        <v>11.67166072558444</v>
       </c>
       <c r="R4">
-        <v>10.21695189684026</v>
+        <v>105.04494653026</v>
       </c>
       <c r="S4">
-        <v>0.03439664736881198</v>
+        <v>0.03257601233568603</v>
       </c>
       <c r="T4">
-        <v>0.03439664736881198</v>
+        <v>0.03419951888349225</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.970374962534857</v>
+        <v>1.013823333333333</v>
       </c>
       <c r="H5">
-        <v>0.970374962534857</v>
+        <v>3.04147</v>
       </c>
       <c r="I5">
-        <v>0.1966423450613002</v>
+        <v>0.1808135948909178</v>
       </c>
       <c r="J5">
-        <v>0.1966423450613002</v>
+        <v>0.1808135948909177</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.5546221982653</v>
+        <v>13.01136333333333</v>
       </c>
       <c r="N5">
-        <v>12.5546221982653</v>
+        <v>39.03409</v>
       </c>
       <c r="O5">
-        <v>0.2085743751765691</v>
+        <v>0.2036194555411202</v>
       </c>
       <c r="P5">
-        <v>0.2085743751765691</v>
+        <v>0.2137673372377884</v>
       </c>
       <c r="Q5">
-        <v>12.18269104528097</v>
+        <v>13.19122374581111</v>
       </c>
       <c r="R5">
-        <v>12.18269104528097</v>
+        <v>118.7210137123</v>
       </c>
       <c r="S5">
-        <v>0.04101455425441599</v>
+        <v>0.03681716574612134</v>
       </c>
       <c r="T5">
-        <v>0.04101455425441599</v>
+        <v>0.03865204071622366</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.970374962534857</v>
+        <v>1.013823333333333</v>
       </c>
       <c r="H6">
-        <v>0.970374962534857</v>
+        <v>3.04147</v>
       </c>
       <c r="I6">
-        <v>0.1966423450613002</v>
+        <v>0.1808135948909178</v>
       </c>
       <c r="J6">
-        <v>0.1966423450613002</v>
+        <v>0.1808135948909177</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.01263594542063</v>
+        <v>9.100365500000001</v>
       </c>
       <c r="N6">
-        <v>9.01263594542063</v>
+        <v>18.200731</v>
       </c>
       <c r="O6">
-        <v>0.1497301058784335</v>
+        <v>0.1424148585250888</v>
       </c>
       <c r="P6">
-        <v>0.1497301058784335</v>
+        <v>0.09967497133022109</v>
       </c>
       <c r="Q6">
-        <v>8.745636267877849</v>
+        <v>9.226162885761667</v>
       </c>
       <c r="R6">
-        <v>8.745636267877849</v>
+        <v>55.35697731457</v>
       </c>
       <c r="S6">
-        <v>0.02944327914621193</v>
+        <v>0.02575054253580276</v>
       </c>
       <c r="T6">
-        <v>0.02944327914621193</v>
+        <v>0.01802258988686643</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -847,49 +847,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.35189092391433</v>
+        <v>0.003585333333333333</v>
       </c>
       <c r="H7">
-        <v>1.35189092391433</v>
+        <v>0.010756</v>
       </c>
       <c r="I7">
-        <v>0.273954926507136</v>
+        <v>0.0006394378463856988</v>
       </c>
       <c r="J7">
-        <v>0.273954926507136</v>
+        <v>0.0006394378463856988</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.89589196829802</v>
+        <v>9.667057999999999</v>
       </c>
       <c r="N7">
-        <v>8.89589196829802</v>
+        <v>29.001174</v>
       </c>
       <c r="O7">
-        <v>0.1477905969310961</v>
+        <v>0.1512832311431697</v>
       </c>
       <c r="P7">
-        <v>0.1477905969310961</v>
+        <v>0.1588228070066391</v>
       </c>
       <c r="Q7">
-        <v>12.02627561206448</v>
+        <v>0.03465962528266666</v>
       </c>
       <c r="R7">
-        <v>12.02627561206448</v>
+        <v>0.311936627544</v>
       </c>
       <c r="S7">
-        <v>0.0404879621207042</v>
+        <v>9.673622351645832E-05</v>
       </c>
       <c r="T7">
-        <v>0.0404879621207042</v>
+        <v>0.0001015573136692568</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.35189092391433</v>
+        <v>0.003585333333333333</v>
       </c>
       <c r="H8">
-        <v>1.35189092391433</v>
+        <v>0.010756</v>
       </c>
       <c r="I8">
-        <v>0.273954926507136</v>
+        <v>0.0006394378463856988</v>
       </c>
       <c r="J8">
-        <v>0.273954926507136</v>
+        <v>0.0006394378463856988</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.2005235485396</v>
+        <v>20.60908733333333</v>
       </c>
       <c r="N8">
-        <v>19.2005235485396</v>
+        <v>61.82726199999999</v>
       </c>
       <c r="O8">
-        <v>0.3189850828607963</v>
+        <v>0.3225189424433408</v>
       </c>
       <c r="P8">
-        <v>0.3189850828607963</v>
+        <v>0.3385924756140875</v>
       </c>
       <c r="Q8">
-        <v>25.95701351967405</v>
+        <v>0.07389044778577776</v>
       </c>
       <c r="R8">
-        <v>25.95701351967405</v>
+        <v>0.6650140300719999</v>
       </c>
       <c r="S8">
-        <v>0.08738753493200213</v>
+        <v>0.000206230817974563</v>
       </c>
       <c r="T8">
-        <v>0.08738753493200213</v>
+        <v>0.0002165088434090743</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.35189092391433</v>
+        <v>0.003585333333333333</v>
       </c>
       <c r="H9">
-        <v>1.35189092391433</v>
+        <v>0.010756</v>
       </c>
       <c r="I9">
-        <v>0.273954926507136</v>
+        <v>0.0006394378463856988</v>
       </c>
       <c r="J9">
-        <v>0.273954926507136</v>
+        <v>0.0006394378463856988</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.528870067042</v>
+        <v>11.51251933333333</v>
       </c>
       <c r="N9">
-        <v>10.528870067042</v>
+        <v>34.537558</v>
       </c>
       <c r="O9">
-        <v>0.1749198391531049</v>
+        <v>0.1801635123472805</v>
       </c>
       <c r="P9">
-        <v>0.1749198391531049</v>
+        <v>0.1891424088112641</v>
       </c>
       <c r="Q9">
-        <v>14.23388388270734</v>
+        <v>0.04127621931644444</v>
       </c>
       <c r="R9">
-        <v>14.23388388270734</v>
+        <v>0.371485973848</v>
       </c>
       <c r="S9">
-        <v>0.0479201516798289</v>
+        <v>0.0001152033683326283</v>
       </c>
       <c r="T9">
-        <v>0.0479201516798289</v>
+        <v>0.0001209448145504781</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.35189092391433</v>
+        <v>0.003585333333333333</v>
       </c>
       <c r="H10">
-        <v>1.35189092391433</v>
+        <v>0.010756</v>
       </c>
       <c r="I10">
-        <v>0.273954926507136</v>
+        <v>0.0006394378463856988</v>
       </c>
       <c r="J10">
-        <v>0.273954926507136</v>
+        <v>0.0006394378463856988</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.5546221982653</v>
+        <v>13.01136333333333</v>
       </c>
       <c r="N10">
-        <v>12.5546221982653</v>
+        <v>39.03409</v>
       </c>
       <c r="O10">
-        <v>0.2085743751765691</v>
+        <v>0.2036194555411202</v>
       </c>
       <c r="P10">
-        <v>0.2085743751765691</v>
+        <v>0.2137673372377884</v>
       </c>
       <c r="Q10">
-        <v>16.97247980300823</v>
+        <v>0.04665007467111111</v>
       </c>
       <c r="R10">
-        <v>16.97247980300823</v>
+        <v>0.41985067204</v>
       </c>
       <c r="S10">
-        <v>0.0571399776227688</v>
+        <v>0.0001302019861334424</v>
       </c>
       <c r="T10">
-        <v>0.0571399776227688</v>
+        <v>0.0001366909257509368</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1095,49 +1095,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.35189092391433</v>
+        <v>0.003585333333333333</v>
       </c>
       <c r="H11">
-        <v>1.35189092391433</v>
+        <v>0.010756</v>
       </c>
       <c r="I11">
-        <v>0.273954926507136</v>
+        <v>0.0006394378463856988</v>
       </c>
       <c r="J11">
-        <v>0.273954926507136</v>
+        <v>0.0006394378463856988</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.01263594542063</v>
+        <v>9.100365500000001</v>
       </c>
       <c r="N11">
-        <v>9.01263594542063</v>
+        <v>18.200731</v>
       </c>
       <c r="O11">
-        <v>0.1497301058784335</v>
+        <v>0.1424148585250888</v>
       </c>
       <c r="P11">
-        <v>0.1497301058784335</v>
+        <v>0.09967497133022109</v>
       </c>
       <c r="Q11">
-        <v>12.1841007351582</v>
+        <v>0.03262784377266667</v>
       </c>
       <c r="R11">
-        <v>12.1841007351582</v>
+        <v>0.195767062636</v>
       </c>
       <c r="S11">
-        <v>0.04101930015183194</v>
+        <v>9.106545042860674E-05</v>
       </c>
       <c r="T11">
-        <v>0.04101930015183194</v>
+        <v>6.373594900595284E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.61245436534784</v>
+        <v>1.664473</v>
       </c>
       <c r="H12">
-        <v>2.61245436534784</v>
+        <v>4.993418999999999</v>
       </c>
       <c r="I12">
-        <v>0.529402728431564</v>
+        <v>0.2968558099164587</v>
       </c>
       <c r="J12">
-        <v>0.529402728431564</v>
+        <v>0.2968558099164587</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.89589196829802</v>
+        <v>9.667057999999999</v>
       </c>
       <c r="N12">
-        <v>8.89589196829802</v>
+        <v>29.001174</v>
       </c>
       <c r="O12">
-        <v>0.1477905969310961</v>
+        <v>0.1512832311431697</v>
       </c>
       <c r="P12">
-        <v>0.1477905969310961</v>
+        <v>0.1588228070066391</v>
       </c>
       <c r="Q12">
-        <v>23.24011180624295</v>
+        <v>16.090557030434</v>
       </c>
       <c r="R12">
-        <v>23.24011180624295</v>
+        <v>144.815013273906</v>
       </c>
       <c r="S12">
-        <v>0.07824074525185183</v>
+        <v>0.04490930610778446</v>
       </c>
       <c r="T12">
-        <v>0.07824074525185183</v>
+        <v>0.04714747300716125</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.61245436534784</v>
+        <v>1.664473</v>
       </c>
       <c r="H13">
-        <v>2.61245436534784</v>
+        <v>4.993418999999999</v>
       </c>
       <c r="I13">
-        <v>0.529402728431564</v>
+        <v>0.2968558099164587</v>
       </c>
       <c r="J13">
-        <v>0.529402728431564</v>
+        <v>0.2968558099164587</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.2005235485396</v>
+        <v>20.60908733333333</v>
       </c>
       <c r="N13">
-        <v>19.2005235485396</v>
+        <v>61.82726199999999</v>
       </c>
       <c r="O13">
-        <v>0.3189850828607963</v>
+        <v>0.3225189424433408</v>
       </c>
       <c r="P13">
-        <v>0.3189850828607963</v>
+        <v>0.3385924756140875</v>
       </c>
       <c r="Q13">
-        <v>50.16049156134628</v>
+        <v>34.30326942097533</v>
       </c>
       <c r="R13">
-        <v>50.16049156134628</v>
+        <v>308.7294247887779</v>
       </c>
       <c r="S13">
-        <v>0.1688715731954741</v>
+        <v>0.09574162187241766</v>
       </c>
       <c r="T13">
-        <v>0.1688715731954741</v>
+        <v>0.1005131435800387</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.61245436534784</v>
+        <v>1.664473</v>
       </c>
       <c r="H14">
-        <v>2.61245436534784</v>
+        <v>4.993418999999999</v>
       </c>
       <c r="I14">
-        <v>0.529402728431564</v>
+        <v>0.2968558099164587</v>
       </c>
       <c r="J14">
-        <v>0.529402728431564</v>
+        <v>0.2968558099164587</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.528870067042</v>
+        <v>11.51251933333333</v>
       </c>
       <c r="N14">
-        <v>10.528870067042</v>
+        <v>34.537558</v>
       </c>
       <c r="O14">
-        <v>0.1749198391531049</v>
+        <v>0.1801635123472805</v>
       </c>
       <c r="P14">
-        <v>0.1749198391531049</v>
+        <v>0.1891424088112641</v>
       </c>
       <c r="Q14">
-        <v>27.50619256882408</v>
+        <v>19.16227759231133</v>
       </c>
       <c r="R14">
-        <v>27.50619256882408</v>
+        <v>172.460498330802</v>
       </c>
       <c r="S14">
-        <v>0.09260304010446406</v>
+        <v>0.05348258537524585</v>
       </c>
       <c r="T14">
-        <v>0.09260304010446406</v>
+        <v>0.05614802295721773</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.61245436534784</v>
+        <v>1.664473</v>
       </c>
       <c r="H15">
-        <v>2.61245436534784</v>
+        <v>4.993418999999999</v>
       </c>
       <c r="I15">
-        <v>0.529402728431564</v>
+        <v>0.2968558099164587</v>
       </c>
       <c r="J15">
-        <v>0.529402728431564</v>
+        <v>0.2968558099164587</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.5546221982653</v>
+        <v>13.01136333333333</v>
       </c>
       <c r="N15">
-        <v>12.5546221982653</v>
+        <v>39.03409</v>
       </c>
       <c r="O15">
-        <v>0.2085743751765691</v>
+        <v>0.2036194555411202</v>
       </c>
       <c r="P15">
-        <v>0.2085743751765691</v>
+        <v>0.2137673372377884</v>
       </c>
       <c r="Q15">
-        <v>32.79837756715108</v>
+        <v>21.65706296152333</v>
       </c>
       <c r="R15">
-        <v>32.79837756715108</v>
+        <v>194.91356665371</v>
       </c>
       <c r="S15">
-        <v>0.1104198432993844</v>
+        <v>0.06044561838940757</v>
       </c>
       <c r="T15">
-        <v>0.1104198432993844</v>
+        <v>0.06345807602940842</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.61245436534784</v>
+        <v>1.664473</v>
       </c>
       <c r="H16">
-        <v>2.61245436534784</v>
+        <v>4.993418999999999</v>
       </c>
       <c r="I16">
-        <v>0.529402728431564</v>
+        <v>0.2968558099164587</v>
       </c>
       <c r="J16">
-        <v>0.529402728431564</v>
+        <v>0.2968558099164587</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.01263594542063</v>
+        <v>9.100365500000001</v>
       </c>
       <c r="N16">
-        <v>9.01263594542063</v>
+        <v>18.200731</v>
       </c>
       <c r="O16">
-        <v>0.1497301058784335</v>
+        <v>0.1424148585250888</v>
       </c>
       <c r="P16">
-        <v>0.1497301058784335</v>
+        <v>0.09967497133022109</v>
       </c>
       <c r="Q16">
-        <v>23.54510011890498</v>
+        <v>15.1473126648815</v>
       </c>
       <c r="R16">
-        <v>23.54510011890498</v>
+        <v>90.883875989289</v>
       </c>
       <c r="S16">
-        <v>0.07926752658038967</v>
+        <v>0.0422766781716031</v>
       </c>
       <c r="T16">
-        <v>0.07926752658038967</v>
+        <v>0.02958909434263258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.925126666666667</v>
+      </c>
+      <c r="H17">
+        <v>8.775380000000002</v>
+      </c>
+      <c r="I17">
+        <v>0.5216911573462379</v>
+      </c>
+      <c r="J17">
+        <v>0.5216911573462378</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>9.667057999999999</v>
+      </c>
+      <c r="N17">
+        <v>29.001174</v>
+      </c>
+      <c r="O17">
+        <v>0.1512832311431697</v>
+      </c>
+      <c r="P17">
+        <v>0.1588228070066391</v>
+      </c>
+      <c r="Q17">
+        <v>28.27736914401334</v>
+      </c>
+      <c r="R17">
+        <v>254.49632229612</v>
+      </c>
+      <c r="S17">
+        <v>0.07892312394215864</v>
+      </c>
+      <c r="T17">
+        <v>0.08285645400027172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.925126666666667</v>
+      </c>
+      <c r="H18">
+        <v>8.775380000000002</v>
+      </c>
+      <c r="I18">
+        <v>0.5216911573462379</v>
+      </c>
+      <c r="J18">
+        <v>0.5216911573462378</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>20.60908733333333</v>
+      </c>
+      <c r="N18">
+        <v>61.82726199999999</v>
+      </c>
+      <c r="O18">
+        <v>0.3225189424433408</v>
+      </c>
+      <c r="P18">
+        <v>0.3385924756140875</v>
+      </c>
+      <c r="Q18">
+        <v>60.28419093439556</v>
+      </c>
+      <c r="R18">
+        <v>542.55771840956</v>
+      </c>
+      <c r="S18">
+        <v>0.1682552803493512</v>
+      </c>
+      <c r="T18">
+        <v>0.1766407004718411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.925126666666667</v>
+      </c>
+      <c r="H19">
+        <v>8.775380000000002</v>
+      </c>
+      <c r="I19">
+        <v>0.5216911573462379</v>
+      </c>
+      <c r="J19">
+        <v>0.5216911573462378</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>11.51251933333333</v>
+      </c>
+      <c r="N19">
+        <v>34.537558</v>
+      </c>
+      <c r="O19">
+        <v>0.1801635123472805</v>
+      </c>
+      <c r="P19">
+        <v>0.1891424088112641</v>
+      </c>
+      <c r="Q19">
+        <v>33.67557730244889</v>
+      </c>
+      <c r="R19">
+        <v>303.0801957220401</v>
+      </c>
+      <c r="S19">
+        <v>0.09398971126801599</v>
+      </c>
+      <c r="T19">
+        <v>0.09867392215600362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.925126666666667</v>
+      </c>
+      <c r="H20">
+        <v>8.775380000000002</v>
+      </c>
+      <c r="I20">
+        <v>0.5216911573462379</v>
+      </c>
+      <c r="J20">
+        <v>0.5216911573462378</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>13.01136333333333</v>
+      </c>
+      <c r="N20">
+        <v>39.03409</v>
+      </c>
+      <c r="O20">
+        <v>0.2036194555411202</v>
+      </c>
+      <c r="P20">
+        <v>0.2137673372377884</v>
+      </c>
+      <c r="Q20">
+        <v>38.05988585602223</v>
+      </c>
+      <c r="R20">
+        <v>342.5389727042001</v>
+      </c>
+      <c r="S20">
+        <v>0.1062264694194578</v>
+      </c>
+      <c r="T20">
+        <v>0.1115205295664054</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.925126666666667</v>
+      </c>
+      <c r="H21">
+        <v>8.775380000000002</v>
+      </c>
+      <c r="I21">
+        <v>0.5216911573462379</v>
+      </c>
+      <c r="J21">
+        <v>0.5216911573462378</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>9.100365500000001</v>
+      </c>
+      <c r="N21">
+        <v>18.200731</v>
+      </c>
+      <c r="O21">
+        <v>0.1424148585250888</v>
+      </c>
+      <c r="P21">
+        <v>0.09967497133022109</v>
+      </c>
+      <c r="Q21">
+        <v>26.61972180046334</v>
+      </c>
+      <c r="R21">
+        <v>159.7183308027801</v>
+      </c>
+      <c r="S21">
+        <v>0.07429657236725429</v>
+      </c>
+      <c r="T21">
+        <v>0.05199955115171612</v>
       </c>
     </row>
   </sheetData>
